--- a/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F6E2F2-458F-41D7-8AF0-3A9F4650F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D5FC36-3E79-40D1-88D6-E648C6C5F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF8BE8E6-D850-4468-A2E9-6F1CBDC1655E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AA9178-CB50-4948-9475-16AD1423AF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>31,57%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>47,06%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,298 +197,298 @@
     <t>45,7%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>38,94%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>42,27%</t>
   </si>
   <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>43,23%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>44,7%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>50,0%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>2,28%</t>
@@ -497,13 +497,13 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -512,10 +512,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61ACD4-11A7-4EF5-8422-FBA871C7C8D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1F4D64-CBF1-4A71-A666-A7C1ECEBCA47}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1338,7 +1335,7 @@
         <v>1682</v>
       </c>
       <c r="N9" s="7">
-        <v>1723419</v>
+        <v>1723420</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1542,7 +1539,7 @@
         <v>4901</v>
       </c>
       <c r="N13" s="7">
-        <v>4399601</v>
+        <v>4399602</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1583,13 +1580,13 @@
         <v>256464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -1598,13 +1595,13 @@
         <v>557082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1616,13 @@
         <v>262069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>454</v>
@@ -1634,13 +1631,13 @@
         <v>301780</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>739</v>
@@ -1649,13 +1646,13 @@
         <v>563850</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1667,13 @@
         <v>91826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
@@ -1685,13 +1682,13 @@
         <v>137150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
@@ -1700,13 +1697,13 @@
         <v>228976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1718,13 @@
         <v>18526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1736,13 +1733,13 @@
         <v>18492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -1751,13 +1748,13 @@
         <v>37018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1822,13 @@
         <v>1455518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1525</v>
@@ -1840,28 +1837,28 @@
         <v>1187969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2805</v>
       </c>
       <c r="N19" s="7">
-        <v>2643486</v>
+        <v>2643487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1873,13 @@
         <v>1371214</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2410</v>
@@ -1891,10 +1888,10 @@
         <v>1692883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>138</v>
@@ -1903,7 +1900,7 @@
         <v>3900</v>
       </c>
       <c r="N20" s="7">
-        <v>3064096</v>
+        <v>3064097</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2011,10 +2008,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,7 +2053,7 @@
         <v>8686</v>
       </c>
       <c r="N23" s="7">
-        <v>7153936</v>
+        <v>7153937</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D5FC36-3E79-40D1-88D6-E648C6C5F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC003124-0934-4F69-BD4B-104B5CB73AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AA9178-CB50-4948-9475-16AD1423AF4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{758EC46F-91CD-42B1-A749-0C1DA02B6C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1F4D64-CBF1-4A71-A666-A7C1ECEBCA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246E7A0-6D4D-4C3B-B9C4-EA49E7EAD17F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC003124-0934-4F69-BD4B-104B5CB73AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4290C518-43B8-42B8-8D80-FBAB1C0F54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{758EC46F-91CD-42B1-A749-0C1DA02B6C5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F6B1D70-5954-4F6C-9D4E-C92F361814DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>31,57%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>47,06%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,322 +197,325 @@
     <t>45,7%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246E7A0-6D4D-4C3B-B9C4-EA49E7EAD17F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCB47C-337D-4AC4-AF04-95B28D2774EE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1335,7 +1338,7 @@
         <v>1682</v>
       </c>
       <c r="N9" s="7">
-        <v>1723420</v>
+        <v>1723419</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1539,7 +1542,7 @@
         <v>4901</v>
       </c>
       <c r="N13" s="7">
-        <v>4399602</v>
+        <v>4399601</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1580,13 +1583,13 @@
         <v>256464</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -1595,13 +1598,13 @@
         <v>557082</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1619,13 @@
         <v>262069</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>454</v>
@@ -1631,13 +1634,13 @@
         <v>301780</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>739</v>
@@ -1646,13 +1649,13 @@
         <v>563850</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1670,13 @@
         <v>91826</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
@@ -1682,13 +1685,13 @@
         <v>137150</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
@@ -1697,13 +1700,13 @@
         <v>228976</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1721,13 @@
         <v>18526</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1733,13 +1736,13 @@
         <v>18492</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -1748,13 +1751,13 @@
         <v>37018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1825,13 @@
         <v>1455518</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1525</v>
@@ -1837,28 +1840,28 @@
         <v>1187969</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2805</v>
       </c>
       <c r="N19" s="7">
-        <v>2643487</v>
+        <v>2643486</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1876,13 @@
         <v>1371214</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2410</v>
@@ -1888,10 +1891,10 @@
         <v>1692883</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>138</v>
@@ -1900,7 +1903,7 @@
         <v>3900</v>
       </c>
       <c r="N20" s="7">
-        <v>3064097</v>
+        <v>3064096</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2008,10 +2011,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2056,7 @@
         <v>8686</v>
       </c>
       <c r="N23" s="7">
-        <v>7153937</v>
+        <v>7153936</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4290C518-43B8-42B8-8D80-FBAB1C0F54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16892CE-6B7B-4041-8F1A-F9D86338963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F6B1D70-5954-4F6C-9D4E-C92F361814DB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FEED1265-1A25-4A3E-9666-644086A69B27}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -71,451 +71,442 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCB47C-337D-4AC4-AF04-95B28D2774EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488B5FCF-DFEC-4E56-B0D1-D9BD042616F2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1051,7 +1042,7 @@
         <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>170057</v>
+        <v>160496</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1066,7 +1057,7 @@
         <v>309</v>
       </c>
       <c r="I4" s="7">
-        <v>192928</v>
+        <v>175977</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1081,7 +1072,7 @@
         <v>515</v>
       </c>
       <c r="N4" s="7">
-        <v>362985</v>
+        <v>336473</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1102,7 +1093,7 @@
         <v>337</v>
       </c>
       <c r="D5" s="7">
-        <v>253492</v>
+        <v>245486</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1117,7 +1108,7 @@
         <v>650</v>
       </c>
       <c r="I5" s="7">
-        <v>360855</v>
+        <v>329728</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1132,7 +1123,7 @@
         <v>987</v>
       </c>
       <c r="N5" s="7">
-        <v>614347</v>
+        <v>575215</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1153,7 +1144,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>96306</v>
+        <v>88761</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1168,7 +1159,7 @@
         <v>393</v>
       </c>
       <c r="I6" s="7">
-        <v>238926</v>
+        <v>210965</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1183,7 +1174,7 @@
         <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>335232</v>
+        <v>299726</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1204,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>18800</v>
+        <v>17382</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1219,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>36046</v>
+        <v>32390</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1234,7 +1225,7 @@
         <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>54846</v>
+        <v>49772</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1255,7 +1246,7 @@
         <v>687</v>
       </c>
       <c r="D8" s="7">
-        <v>538655</v>
+        <v>512126</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1270,7 +1261,7 @@
         <v>1413</v>
       </c>
       <c r="I8" s="7">
-        <v>828755</v>
+        <v>749060</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1285,7 +1276,7 @@
         <v>2100</v>
       </c>
       <c r="N8" s="7">
-        <v>1367410</v>
+        <v>1261186</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1308,7 +1299,7 @@
         <v>794</v>
       </c>
       <c r="D9" s="7">
-        <v>984842</v>
+        <v>1147062</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1323,7 +1314,7 @@
         <v>888</v>
       </c>
       <c r="I9" s="7">
-        <v>738577</v>
+        <v>664426</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1338,7 +1329,7 @@
         <v>1682</v>
       </c>
       <c r="N9" s="7">
-        <v>1723419</v>
+        <v>1811488</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1359,7 +1350,7 @@
         <v>868</v>
       </c>
       <c r="D10" s="7">
-        <v>855652</v>
+        <v>842660</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1374,7 +1365,7 @@
         <v>1306</v>
       </c>
       <c r="I10" s="7">
-        <v>1030248</v>
+        <v>1136662</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1389,16 +1380,16 @@
         <v>2174</v>
       </c>
       <c r="N10" s="7">
-        <v>1885900</v>
+        <v>1979323</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,46 +1401,46 @@
         <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>275054</v>
+        <v>256397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
       </c>
       <c r="I11" s="7">
-        <v>405354</v>
+        <v>367349</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>910</v>
       </c>
       <c r="N11" s="7">
-        <v>680408</v>
+        <v>623746</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,46 +1452,46 @@
         <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>39375</v>
+        <v>36637</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
       </c>
       <c r="I12" s="7">
-        <v>70499</v>
+        <v>64929</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>135</v>
       </c>
       <c r="N12" s="7">
-        <v>109874</v>
+        <v>101567</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1503,7 @@
         <v>1987</v>
       </c>
       <c r="D13" s="7">
-        <v>2154923</v>
+        <v>2282756</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1518,7 @@
         <v>2914</v>
       </c>
       <c r="I13" s="7">
-        <v>2244678</v>
+        <v>2233367</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1542,7 +1533,7 @@
         <v>4901</v>
       </c>
       <c r="N13" s="7">
-        <v>4399601</v>
+        <v>4516123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1556,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,46 +1556,46 @@
         <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>300618</v>
+        <v>288359</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
       </c>
       <c r="I14" s="7">
-        <v>256464</v>
+        <v>232839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
       </c>
       <c r="N14" s="7">
-        <v>557082</v>
+        <v>521197</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,46 +1607,46 @@
         <v>285</v>
       </c>
       <c r="D15" s="7">
-        <v>262069</v>
+        <v>254061</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>454</v>
       </c>
       <c r="I15" s="7">
-        <v>301780</v>
+        <v>285022</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>739</v>
       </c>
       <c r="N15" s="7">
-        <v>563850</v>
+        <v>539083</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,46 +1658,46 @@
         <v>103</v>
       </c>
       <c r="D16" s="7">
-        <v>91826</v>
+        <v>85881</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
       </c>
       <c r="I16" s="7">
-        <v>137150</v>
+        <v>125692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
       </c>
       <c r="N16" s="7">
-        <v>228976</v>
+        <v>211572</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,46 +1709,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>18526</v>
+        <v>18322</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>18492</v>
+        <v>16911</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>37018</v>
+        <v>35233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1760,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1775,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1799,7 +1790,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1822,46 +1813,46 @@
         <v>1280</v>
       </c>
       <c r="D19" s="7">
-        <v>1455518</v>
+        <v>1595917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>1525</v>
       </c>
       <c r="I19" s="7">
-        <v>1187969</v>
+        <v>1073242</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>2805</v>
       </c>
       <c r="N19" s="7">
-        <v>2643486</v>
+        <v>2669159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,46 +1864,46 @@
         <v>1490</v>
       </c>
       <c r="D20" s="7">
-        <v>1371214</v>
+        <v>1342208</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>2410</v>
       </c>
       <c r="I20" s="7">
-        <v>1692883</v>
+        <v>1751413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>3900</v>
       </c>
       <c r="N20" s="7">
-        <v>3064096</v>
+        <v>3093620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,46 +1915,46 @@
         <v>512</v>
       </c>
       <c r="D21" s="7">
-        <v>463186</v>
+        <v>431038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>1212</v>
       </c>
       <c r="I21" s="7">
-        <v>781430</v>
+        <v>704005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>1724</v>
       </c>
       <c r="N21" s="7">
-        <v>1244616</v>
+        <v>1135044</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,46 +1966,46 @@
         <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>76701</v>
+        <v>72342</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
       </c>
       <c r="I22" s="7">
-        <v>125037</v>
+        <v>114230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
       </c>
       <c r="N22" s="7">
-        <v>201738</v>
+        <v>186572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2017,7 @@
         <v>3355</v>
       </c>
       <c r="D23" s="7">
-        <v>3366618</v>
+        <v>3441505</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2041,7 +2032,7 @@
         <v>5331</v>
       </c>
       <c r="I23" s="7">
-        <v>3787319</v>
+        <v>3642890</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2056,7 +2047,7 @@
         <v>8686</v>
       </c>
       <c r="N23" s="7">
-        <v>7153936</v>
+        <v>7084395</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
